--- a/data_excel/711.xlsx
+++ b/data_excel/711.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kokoronight\Desktop\前400題example excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ailab-master\ailab-master\ai-lab\data_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="33">
   <si>
     <t>媽媽</t>
   </si>
@@ -109,13 +109,25 @@
   </si>
   <si>
     <t>3</t>
+  </si>
+  <si>
+    <t>nv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -130,6 +142,13 @@
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -139,7 +158,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -147,12 +166,28 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -458,7 +493,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -503,7 +538,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -523,7 +558,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -533,14 +568,14 @@
       <c r="E4" t="s">
         <v>11</v>
       </c>
-      <c r="F4" t="s">
-        <v>4</v>
+      <c r="F4" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="G4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -560,12 +595,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>11</v>
       </c>
-      <c r="B6" t="s">
-        <v>4</v>
+      <c r="B6" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
@@ -650,7 +685,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>28</v>
       </c>
@@ -661,12 +696,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>11</v>
       </c>
-      <c r="B13" t="s">
-        <v>4</v>
+      <c r="B13" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="C13" t="s">
         <v>12</v>
